--- a/biology/Médecine/Liste_des_cancérogènes_du_groupe_1_du_CIRC/Liste_des_cancérogènes_du_groupe_1_du_CIRC.xlsx
+++ b/biology/Médecine/Liste_des_cancérogènes_du_groupe_1_du_CIRC/Liste_des_cancérogènes_du_groupe_1_du_CIRC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_1_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_1_du_CIRC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des cancérogènes du groupe 1 du CIRC référence les agents classés comme cancérogènes certains, parfois appelés cancérogènes avérés, pour l’Homme par le Centre international de recherche sur le cancer (CIRC).
-Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru[1].
+Le classement des cancérogènes par groupe du CIRC ne reflète pas le niveau de risque, mais le degré de certitude quant à l'effet cancérigène d'une substance. Cela ne reflète donc pas la probabilité de causer un cancer compte tenu du niveau d'exposition à cet agent cancérigène mais indique le degré de certitude de la capacité à provoquer un cancer d'un agent peu importe le niveau de risque encouru.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_1_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_1_du_CIRC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Rappel de la classification par le CIRC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le CIRC classe les agents, mélanges et expositions en 4 autres catégories :
 Catégorie 1: cancérogène certains pour l'homme.
 Catégorie 2A : cancérogène probable pour l'homme.
 Catégorie 2B : cancérogène possible pour l'homme.
 Catégorie 3 : inclassable quant à sa cancérogénicité pour l'homme.
-Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019[3].</t>
+Catégorie 4 : probablement non cancérogène pour l'homme. Seul le caprolactame a déjà été classé dans cette catégorie, avant d'être reclassé dans la catégorie 3 en 2019.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_1_du_CIRC</t>
+          <t>Liste_des_cancérogènes_du_groupe_1_du_CIRC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,16 +563,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Substances
-Nouveaux agents classés depuis le 17 octobre 2013 dans le Groupe 1 du CIRC
+          <t>Substances</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nouveaux agents classés depuis le 17 octobre 2013 dans le Groupe 1 du CIRC
 La pollution de l'air extérieur a été classée comme cancérogène pour l'homme.
-Les matières particulaires (PM), « une composante majeure de la pollution de l'air extérieur », ont été évaluées séparément et ont également été classées comme cancérogènes pour l’homme[4].
-Mélanges
-Expositions professionnelles et autres
-Les « circonstances d’exposition », professionnelles ou autres, comportent les situations où existe un risque de contact avec un agent cancérogène pour l'homme.
+Les matières particulaires (PM), « une composante majeure de la pollution de l'air extérieur », ont été évaluées séparément et ont également été classées comme cancérogènes pour l’homme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_cancérogènes_du_groupe_1_du_CIRC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_canc%C3%A9rog%C3%A8nes_du_groupe_1_du_CIRC</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Agents</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Expositions professionnelles et autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les « circonstances d’exposition », professionnelles ou autres, comportent les situations où existe un risque de contact avec un agent cancérogène pour l'homme.
 Le classement d’un « agent » dans cette catégorie est préconisé lorsqu’il existe des preuves suffisantes de sa cancérogénicité pour l'homme.
 Exceptionnellement, un agent (ou un mélange) peut être ajouté à cette liste lorsque les preuves de sa cancérogénicité pour l'homme sont insuffisantes, mais qu’il existe des preuves suffisantes de sa cancérogénicité expérimentale pour les animaux de laboratoire et des indications fortes selon lesquelles l'agent (ou le mélange) agit sur les personnes exposées par un mécanisme cancérogène.
-De plus amples détails peuvent être trouvés dans les Monographies du CIRC[6].
+De plus amples détails peuvent être trouvés dans les Monographies du CIRC.
 </t>
         </is>
       </c>
